--- a/workspaces/fast_gradient/test_scheds.xlsx
+++ b/workspaces/fast_gradient/test_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gdpa_fast</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>hopa</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pd</t>
         </is>
@@ -463,6 +468,9 @@
       <c r="D2" t="n">
         <v>50</v>
       </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,6 +485,9 @@
       <c r="D3" t="n">
         <v>50</v>
       </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -491,6 +502,9 @@
       <c r="D4" t="n">
         <v>50</v>
       </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -505,6 +519,9 @@
       <c r="D5" t="n">
         <v>50</v>
       </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -517,6 +534,9 @@
         <v>50</v>
       </c>
       <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
         <v>49</v>
       </c>
     </row>
@@ -531,6 +551,9 @@
         <v>50</v>
       </c>
       <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
         <v>44</v>
       </c>
     </row>
@@ -545,6 +568,9 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
         <v>42</v>
       </c>
     </row>
@@ -559,6 +585,9 @@
         <v>50</v>
       </c>
       <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
         <v>41</v>
       </c>
     </row>
@@ -573,6 +602,9 @@
         <v>50</v>
       </c>
       <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
         <v>39</v>
       </c>
     </row>
@@ -587,6 +619,9 @@
         <v>50</v>
       </c>
       <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
         <v>32</v>
       </c>
     </row>
@@ -601,6 +636,9 @@
         <v>49</v>
       </c>
       <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -615,6 +653,9 @@
         <v>48</v>
       </c>
       <c r="D13" t="n">
+        <v>48</v>
+      </c>
+      <c r="E13" t="n">
         <v>24</v>
       </c>
     </row>
@@ -626,9 +667,12 @@
         <v>48</v>
       </c>
       <c r="C14" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" t="n">
         <v>45</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -640,9 +684,12 @@
         <v>45</v>
       </c>
       <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
         <v>41</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>21</v>
       </c>
     </row>
@@ -654,9 +701,12 @@
         <v>42</v>
       </c>
       <c r="C16" t="n">
+        <v>42</v>
+      </c>
+      <c r="D16" t="n">
         <v>36</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>18</v>
       </c>
     </row>
@@ -668,9 +718,12 @@
         <v>36</v>
       </c>
       <c r="C17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
         <v>30</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>16</v>
       </c>
     </row>
@@ -682,9 +735,12 @@
         <v>30</v>
       </c>
       <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
         <v>29</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -696,9 +752,12 @@
         <v>26</v>
       </c>
       <c r="C19" t="n">
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
         <v>23</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -707,12 +766,15 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
         <v>14</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -724,9 +786,12 @@
         <v>14</v>
       </c>
       <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>5</v>
       </c>
     </row>

--- a/workspaces/fast_gradient/test_scheds.xlsx
+++ b/workspaces/fast_gradient/test_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gdpa</t>
+          <t>gdpa_fast1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdpa_fast</t>
+          <t>gdpa_fast2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>hopa</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pd</t>
+          <t>gdpa_fast3</t>
         </is>
       </c>
     </row>
@@ -468,9 +463,6 @@
       <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -485,9 +477,6 @@
       <c r="D3" t="n">
         <v>50</v>
       </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -502,9 +491,6 @@
       <c r="D4" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -519,9 +505,6 @@
       <c r="D5" t="n">
         <v>50</v>
       </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -536,9 +519,6 @@
       <c r="D6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -553,9 +533,6 @@
       <c r="D7" t="n">
         <v>50</v>
       </c>
-      <c r="E7" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -570,9 +547,6 @@
       <c r="D8" t="n">
         <v>50</v>
       </c>
-      <c r="E8" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -587,9 +561,6 @@
       <c r="D9" t="n">
         <v>50</v>
       </c>
-      <c r="E9" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -604,25 +575,19 @@
       <c r="D10" t="n">
         <v>50</v>
       </c>
-      <c r="E10" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +598,10 @@
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>49</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +609,13 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" t="n">
         <v>48</v>
       </c>
       <c r="D13" t="n">
         <v>48</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +623,13 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +637,13 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
+        <v>42</v>
+      </c>
+      <c r="C15" t="n">
+        <v>46</v>
+      </c>
+      <c r="D15" t="n">
         <v>45</v>
-      </c>
-      <c r="C15" t="n">
-        <v>45</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41</v>
-      </c>
-      <c r="E15" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +651,13 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +665,13 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" t="n">
         <v>36</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>30</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +679,13 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +693,13 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24</v>
+      </c>
+      <c r="D19" t="n">
         <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>26</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +707,13 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +721,13 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/workspaces/fast_gradient/test_scheds.xlsx
+++ b/workspaces/fast_gradient/test_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gdpa_fast1</t>
+          <t>gdpa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdpa_fast2</t>
+          <t>gdpa_fast</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gdpa_fast3</t>
+          <t>hopa</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pd</t>
         </is>
       </c>
     </row>
@@ -458,9 +463,12 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -472,9 +480,12 @@
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
         <v>50</v>
       </c>
     </row>
@@ -486,9 +497,12 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -500,9 +514,12 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
         <v>50</v>
       </c>
     </row>
@@ -514,10 +531,13 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +548,13 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
         <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +565,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +582,13 @@
         <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +599,13 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +613,16 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +633,13 @@
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +647,16 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
         <v>48</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +664,16 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>48</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48</v>
+      <c r="E14" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +681,16 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +698,16 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +715,16 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +732,16 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
         <v>29</v>
       </c>
-      <c r="C18" t="n">
-        <v>30</v>
-      </c>
-      <c r="D18" t="n">
-        <v>30</v>
+      <c r="E18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +749,16 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +766,16 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +783,16 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/workspaces/fast_gradient/test_scheds.xlsx
+++ b/workspaces/fast_gradient/test_scheds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gdpa</t>
+          <t>gdpa_fast1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdpa_fast</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>hopa</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pd</t>
+          <t>gdpa_fast2</t>
         </is>
       </c>
     </row>
@@ -460,15 +450,9 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -477,15 +461,9 @@
         <v>0.5210526315789473</v>
       </c>
       <c r="B3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
         <v>50</v>
       </c>
     </row>
@@ -494,15 +472,9 @@
         <v>0.5421052631578948</v>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
         <v>50</v>
       </c>
     </row>
@@ -511,15 +483,9 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
         <v>50</v>
       </c>
     </row>
@@ -528,16 +494,10 @@
         <v>0.5842105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +505,10 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +516,10 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +527,10 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +538,10 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +549,10 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>37</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +560,10 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
         <v>49</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29</v>
-      </c>
-      <c r="D12" t="n">
-        <v>49</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +571,10 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +582,10 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="n">
         <v>45</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +593,10 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41</v>
-      </c>
-      <c r="E15" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +604,10 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +615,10 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
-      </c>
-      <c r="D17" t="n">
-        <v>30</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +626,10 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" t="n">
         <v>29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +637,10 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +648,10 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +659,10 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
